--- a/air_quality/data_poland/meta.xlsx
+++ b/air_quality/data_poland/meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest_pokropek/Desktop/uni/scalable_ml/air_quality/data_poland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADD6E6F-7C48-BA45-A31F-0C47E018368B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17D1A7D-0F58-6846-B10E-FE27C19F5955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{1A7BEA6F-7B03-FE4A-A7D8-1E97B297266F}"/>
+    <workbookView xWindow="11760" yWindow="22100" windowWidth="28800" windowHeight="17500" xr2:uid="{1A7BEA6F-7B03-FE4A-A7D8-1E97B297266F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
-  <si>
-    <t>city_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>lon</t>
   </si>
@@ -369,6 +366,75 @@
   </si>
   <si>
     <t>1915.3</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>city_id</t>
+  </si>
+  <si>
+    <t>Biała Podlaska</t>
+  </si>
+  <si>
+    <t>Białystok</t>
+  </si>
+  <si>
+    <t>Bielsko-Biała</t>
+  </si>
+  <si>
+    <t>Bydgoszcz</t>
+  </si>
+  <si>
+    <t>Gdańsk</t>
+  </si>
+  <si>
+    <t>Gorzów Wielkopolski</t>
+  </si>
+  <si>
+    <t>Kalisz</t>
+  </si>
+  <si>
+    <t>Katowice</t>
+  </si>
+  <si>
+    <t>Koszalin</t>
+  </si>
+  <si>
+    <t>Kraków</t>
+  </si>
+  <si>
+    <t>Lublin</t>
+  </si>
+  <si>
+    <t>Poznań</t>
+  </si>
+  <si>
+    <t>Radom</t>
+  </si>
+  <si>
+    <t>Rzeszów</t>
+  </si>
+  <si>
+    <t>Suwałki</t>
+  </si>
+  <si>
+    <t>Szczecin</t>
+  </si>
+  <si>
+    <t>Szczecinek</t>
+  </si>
+  <si>
+    <t>Warszawa</t>
+  </si>
+  <si>
+    <t>Wrocław</t>
+  </si>
+  <si>
+    <t>Łódź</t>
+  </si>
+  <si>
+    <t>Łomża</t>
   </si>
 </sst>
 </file>
@@ -431,7 +497,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,7 +785,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -727,454 +793,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC693E04-AF2D-0443-85FA-C6C7CFAE918C}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2">
+        <v>56942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>56942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>293413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3">
-        <v>293413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>168319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4">
-        <v>168319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>337666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5">
-        <v>337666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>486022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>117379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>99106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>286960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="F6">
-        <v>486022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7">
-        <v>117379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>99106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9">
-        <v>286960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="G10">
+        <v>105801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F10">
-        <v>105801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>802583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F11">
-        <v>802583</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12">
+        <v>334681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F12">
-        <v>334681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>546859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13">
-        <v>546859</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14">
+        <v>209296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F14">
-        <v>209296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>198609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F15">
-        <v>198609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16">
+        <v>69575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16">
-        <v>69575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17">
+        <v>396472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F17">
-        <v>396472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="D18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>39705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F18">
-        <v>39705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" t="s">
         <v>93</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>94</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19">
+        <v>1860281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>95</v>
       </c>
-      <c r="F19">
-        <v>1860281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20">
+        <v>672929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F20">
-        <v>672929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21">
+        <v>670642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F21">
-        <v>670642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" t="s">
         <v>108</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>109</v>
       </c>
-      <c r="E22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>62573</v>
       </c>
     </row>

--- a/air_quality/data_poland/meta.xlsx
+++ b/air_quality/data_poland/meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest_pokropek/Desktop/uni/scalable_ml/air_quality/data_poland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17D1A7D-0F58-6846-B10E-FE27C19F5955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFB8A38-F932-9B4F-ADFD-08E9D9E5D169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11760" yWindow="22100" windowWidth="28800" windowHeight="17500" xr2:uid="{1A7BEA6F-7B03-FE4A-A7D8-1E97B297266F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>lon</t>
   </si>
@@ -326,9 +326,6 @@
     <t>wroclaw</t>
   </si>
   <si>
-    <t>lodz</t>
-  </si>
-  <si>
     <t>lomza</t>
   </si>
   <si>
@@ -344,18 +341,6 @@
     <t>2298.0</t>
   </si>
   <si>
-    <t>51.776667</t>
-  </si>
-  <si>
-    <t>19.454722</t>
-  </si>
-  <si>
-    <t>293.25</t>
-  </si>
-  <si>
-    <t>2287.0</t>
-  </si>
-  <si>
     <t>53.176389</t>
   </si>
   <si>
@@ -431,10 +416,43 @@
     <t>Wrocław</t>
   </si>
   <si>
-    <t>Łódź</t>
-  </si>
-  <si>
     <t>Łomża</t>
+  </si>
+  <si>
+    <t>Piotrków Trybunalski</t>
+  </si>
+  <si>
+    <t>piotrkow_trybunalski</t>
+  </si>
+  <si>
+    <t>1074.5</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>51.406667</t>
+  </si>
+  <si>
+    <t>19.695556</t>
+  </si>
+  <si>
+    <t>mlawa</t>
+  </si>
+  <si>
+    <t>Mława</t>
+  </si>
+  <si>
+    <t>968.0</t>
+  </si>
+  <si>
+    <t>53.127222</t>
+  </si>
+  <si>
+    <t>20.3575</t>
+  </si>
+  <si>
+    <t>34.8</t>
   </si>
 </sst>
 </file>
@@ -476,9 +494,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC693E04-AF2D-0443-85FA-C6C7CFAE918C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,10 +826,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -833,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -856,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -879,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -902,7 +921,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -925,7 +944,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -948,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -971,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -994,7 +1013,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
@@ -1017,7 +1036,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
@@ -1040,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
@@ -1063,7 +1082,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>63</v>
@@ -1086,7 +1105,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>67</v>
@@ -1109,7 +1128,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>71</v>
@@ -1132,7 +1151,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>75</v>
@@ -1155,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>79</v>
@@ -1173,12 +1192,12 @@
         <v>69575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>83</v>
@@ -1196,12 +1215,12 @@
         <v>396472</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>87</v>
@@ -1219,12 +1238,12 @@
         <v>39705</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>91</v>
@@ -1242,73 +1261,97 @@
         <v>1860281</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" t="s">
         <v>99</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>101</v>
       </c>
       <c r="G20">
         <v>672929</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>96</v>
       </c>
       <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21">
+        <v>62573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21">
-        <v>670642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>62573</v>
+        <v>72250</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23">
+        <v>33700</v>
       </c>
     </row>
   </sheetData>
